--- a/data/GEO_upload_info/Cell-line-seq.xlsx
+++ b/data/GEO_upload_info/Cell-line-seq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smgroves/Documents/GitHub/Groves-CellSys2021/data/GEO_upload_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60F1474-1BDD-B64B-BD02-EFAC97C67A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDA9D6-6944-7F43-AB97-015D145C2237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21900" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17080" yWindow="460" windowWidth="21900" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA TEMPLATE " sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -386,39 +386,372 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">A Sequence Read Archive-specific field that describes the sequencing technique for this library. Please select one of the following terms:
-RNA-Seq
-miRNA-Seq
-ncRNA-Seq
-RNA-Seq (size fractionation)
-RNA-Seq (CAGE)
-RNA-Seq (RACE)
-ssRNA-seq
-ChIP-Seq
-MNase-Seq
-MBD-Seq
-MRE-Seq
-Bisulfite-Seq
-Bisulfite-Seq (reduced representation)
-MeDIP-Seq
-DNase-Hypersensitivity
-Tn-Seq
-FAIRE-seq
-SELEX
-RIP-Seq
-ATAC-seq
-ChIA-PET
-Hi-C
-OTHER: specify
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">miRNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ncRNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq (size fractionation)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq (CAGE)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq (RACE)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ssRNA-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ChIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MNase-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MBD-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MRE-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Bisulfite-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Bisulfite-Seq (reduced representation)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MeDIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DNase-Hypersensitivity
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tn-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">FAIRE-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SELEX
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ATAC-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ChIA-PET
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hi-C
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OTHER: specify
 </t>
         </r>
       </text>
     </comment>
     <comment ref="A42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Base-calling software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Data filtering steps;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Read alignment software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">etc...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -458,7 +791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -478,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -498,33 +831,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
-Base-calling software, version, parameters;
-Data filtering steps;
-Read alignment software, version, parameters;
-Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
-etc...
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -539,7 +852,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2172,7 +2485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="207">
   <si>
     <t>title</t>
   </si>
@@ -3005,65 +3318,316 @@
     <t>human SCLC cell line</t>
   </si>
   <si>
-    <t>loom</t>
-  </si>
-  <si>
     <t>RUN md5 &lt;file&gt; for each file</t>
   </si>
   <si>
-    <t>2637-SM-1-GCCAAT_S1_2637-SM-1-GCCAAT_S1.fastq.sorted.fastq.gz</t>
-  </si>
-  <si>
-    <t>2637-SM-2-CTTGTA_S2_2637-SM-2-CTTGTA_S2.fastq.sorted.fastq.gz</t>
-  </si>
-  <si>
-    <t>2637-SM-3-ACAGTG_S3_2637-SM-3-ACAGTG_S3.fastq.sorted.fastq.gz</t>
-  </si>
-  <si>
-    <t>2638-SM-1-GCCAAT_S1_2638-SM-1-GCCAAT_S1.fastq.sorted.fastq.gz</t>
-  </si>
-  <si>
-    <t>2638-SM-2-CTTGTA_S2_2638-SM-2-CTTGTA_S2.fastq.sorted.fastq.gz</t>
-  </si>
-  <si>
-    <t>2638-SM-4-GTGAAA_S4_2638-SM-4-GTGAAA_S4.fastq.sorted.fastq.gz</t>
-  </si>
-  <si>
-    <t>2639-SM-1-GCCAAT_S1_2639-SM-1-GCCAAT_S1.fastq.sorted.fastq.gz</t>
-  </si>
-  <si>
-    <t>2639-SM-2-CTTGTA_S2_2639-SM-2-CTTGTA_S2.fastq.sorted.fastq.gz</t>
-  </si>
-  <si>
-    <t>2637-1-DMS454.loom</t>
-  </si>
-  <si>
-    <t>2637-2-CORL279.loom</t>
-  </si>
-  <si>
-    <t>2637-3-H1048.loom</t>
-  </si>
-  <si>
-    <t>2638-1-H82.loom</t>
-  </si>
-  <si>
-    <t>2638-2-H69.loom</t>
-  </si>
-  <si>
-    <t>2638-4-H841.loom</t>
-  </si>
-  <si>
-    <t>2639-1-H524.loom</t>
-  </si>
-  <si>
-    <t>2639-2-DMS53.loom</t>
+    <t>Cell lines were grown in the preferred media by ATCC in incubators at 37 degrees Celsius and 5% CO2 in media suggested by ATCC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cells were dissociated with TrypLE, washed with PBS three times, and then the cells were counted, and concentration was adjusted to 100 cells/μL. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Droplet-based single cell encapsulation and barcoding was performed using the inDrop platform (1CellBio), with an in vitro transcription library preparation protocol (Klein et al., 2015). </t>
+  </si>
+  <si>
+    <t>RNA-seq</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Single cell RNA-seq counts matrices were primarily analyzed using the Python packages </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Scanpy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">scVelo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Bergen et al., 2020; Wolf et al., 2018)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>First, the scRNAseq read counts, including both spliced and unspliced counts, for each of the 8 cell line samples were generated using the command line interface (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>run_dropest)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">velocyto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>on the BAM files generated from DropEst, as described above. This tool generates loom files that can be used with Scanpy and scVelo for preprocessing and velocity calculations. We then used Scanpy to read in the loom files as an AnnData object (anndata.readthedocs.io).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We initially filter out cells with &lt; 100 genes using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">scanpy.pp.filter_cells </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">with min_genes = 100. This reduces the total number of cells (in all 8 samples) from 86,492 to 86,349. We remove genes found in &lt; 3 total spliced counts across all samples with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>scanpy.pp.filter_genes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with min_counts &lt; 3. This reduces the number of genes from 63,677 to 22,475. These filtering steps ensure we remove any cells or genes with low or no reads, to prepare for further filtering steps below. </t>
+    </r>
+  </si>
+  <si>
+    <t>We then use Dropkick v1.2.6 (https://github.com/KenLauLab/dropkick) to label and filter out low quality cells from each sample. Once each sample has dropkick scores and labels (using dropkick score &gt; 0.5 to identify high quality cells), we then concatenate the datasets with a batch key for each cell line. In downstream analyses, we can analyze the dataset as a whole (such as in the PCA reduction) or we can analyze each batch independently (such as in calculating RNA velocity by batch).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We normalize the data using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>scanpy.pp.normalize_total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, which removes any biases due to varying total counts per cell. We used default arguments for this normalization (as described in the Scanpy API v 1.8), such that after normalization, each cell has a total count equal to the median of total counts for cells before normalization. Next, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>numpy.log1p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is used to log transform the data (+1, which keeps zeroes from being transformed to negative infinity). Finally, the log-transformed, normalized counts are then scaled using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>scapy.pp.scale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, which rescales the data to unit variance and mean-centers each gene. We then use </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">scanpy.tl.pca </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">to compute a 50-component PCA embedding of the data, using all genes, and use </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">scvelo.pp.neighbors </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> scvelo.tl.umap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>to generate a UMAP dimensionality reduction.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Imputation of single cell data with a tool such as MAGIC has been shown to improve archetype detection (Dijk et al., 2018). We therefore use MAGIC to build a model with the default parameters (knn =5, decay = 1, t= 3). We fit this operator with solver = ‘approximate’ and genes = ‘all_genes’ and transform the preprocessed data after the filtering and normalization described above (16,108 cells and 20,446 genes). </t>
+  </si>
+  <si>
+    <t>hg18</t>
+  </si>
+  <si>
+    <t>Marisol, could you double check this? Not sure if hg18 or hg19</t>
+  </si>
+  <si>
+    <t>Marisol Ramirez</t>
+  </si>
+  <si>
+    <t>Qi Liu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3157,6 +3721,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3191,7 +3781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3239,12 +3829,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3589,14 +4195,15 @@
   </sheetPr>
   <dimension ref="A1:J240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.6640625" style="20" customWidth="1"/>
-    <col min="2" max="16384" width="28.6640625" style="20"/>
+    <col min="2" max="2" width="55" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="28.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -3669,7 +4276,7 @@
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>167</v>
       </c>
       <c r="C9" s="7"/>
@@ -3680,7 +4287,7 @@
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>168</v>
       </c>
       <c r="C10" s="7"/>
@@ -3724,7 +4331,9 @@
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -3733,7 +4342,9 @@
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="24" t="s">
+        <v>206</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -3774,15 +4385,15 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
@@ -3835,12 +4446,7 @@
       <c r="F23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>195</v>
-      </c>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
@@ -3861,12 +4467,7 @@
       <c r="F24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>196</v>
-      </c>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
@@ -3887,12 +4488,7 @@
       <c r="F25" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>197</v>
-      </c>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
@@ -3913,12 +4509,7 @@
       <c r="F26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>198</v>
-      </c>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
@@ -3939,12 +4530,7 @@
       <c r="F27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>199</v>
-      </c>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="27" t="s">
@@ -3965,12 +4551,7 @@
       <c r="F28" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>200</v>
-      </c>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="27" t="s">
@@ -3991,12 +4572,6 @@
       <c r="F29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="30" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="27" t="s">
@@ -4017,12 +4592,6 @@
       <c r="F30" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
@@ -4035,11 +4604,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="39" t="s">
+        <v>194</v>
+      </c>
       <c r="C33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -4053,20 +4624,24 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="39" t="s">
+        <v>195</v>
+      </c>
       <c r="C35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="39" t="s">
+        <v>196</v>
+      </c>
       <c r="C36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -4075,7 +4650,9 @@
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
@@ -4095,32 +4672,45 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="142" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="112" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="112" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="182" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="98" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="42" t="s">
+        <v>202</v>
+      </c>
       <c r="C46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -4129,8 +4719,12 @@
       <c r="A47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="8"/>
+      <c r="B47" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>204</v>
+      </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
@@ -4145,7 +4739,6 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
-      <c r="B49" s="14"/>
       <c r="C49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -4172,71 +4765,37 @@
       </c>
     </row>
     <row r="53" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="12"/>
+      <c r="C53" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="54" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>193</v>
-      </c>
+      <c r="A54" s="12"/>
     </row>
     <row r="55" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>193</v>
-      </c>
+      <c r="A55" s="12"/>
+      <c r="B55" s="24"/>
     </row>
     <row r="56" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>193</v>
-      </c>
+      <c r="A56" s="20"/>
+      <c r="B56" s="24"/>
     </row>
     <row r="57" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>193</v>
-      </c>
+      <c r="A57" s="20"/>
+      <c r="B57" s="24"/>
     </row>
     <row r="58" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>193</v>
-      </c>
+      <c r="A58" s="20"/>
+      <c r="B58" s="24"/>
     </row>
     <row r="59" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>193</v>
-      </c>
+      <c r="A59" s="20"/>
+      <c r="B59" s="24"/>
     </row>
     <row r="60" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>193</v>
-      </c>
+      <c r="A60" s="20"/>
+      <c r="B60" s="24"/>
     </row>
     <row r="61" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="21" t="s">
@@ -4267,68 +4826,30 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="B64" s="24"/>
     </row>
     <row r="65" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="B65" s="24"/>
     </row>
     <row r="66" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="B66" s="24"/>
     </row>
     <row r="67" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="B67" s="24"/>
     </row>
     <row r="68" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="B68" s="24"/>
     </row>
     <row r="69" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="B69" s="24"/>
     </row>
     <row r="70" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="A70" s="20"/>
+      <c r="B70" s="24"/>
     </row>
     <row r="71" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="A71" s="20"/>
+      <c r="B71" s="24"/>
     </row>
     <row r="72" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="21" t="s">
@@ -5038,17 +5559,17 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
@@ -6359,17 +6880,17 @@
       </c>
     </row>
     <row r="22" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
